--- a/data/trans_dic/P62A$invalidez-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P62A$invalidez-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.05984151101950354</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.06168689261823865</v>
+        <v>0.06168689261823867</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.1015610051791956</v>
@@ -708,38 +708,38 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05799048308083452</v>
+        <v>0.04968482441971601</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05936565138876209</v>
+        <v>0.05865826651972798</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03130796665861437</v>
+        <v>0.03067957118886504</v>
       </c>
       <c r="F5" s="5" t="inlineStr"/>
       <c r="G5" s="5" t="n">
-        <v>0.02401637660578198</v>
+        <v>0.02377395602065462</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.05096461657049105</v>
+        <v>0.04874546898100716</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01810714596470437</v>
+        <v>0.01833209148892606</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02785474339257299</v>
+        <v>0.02686307648003722</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.05412133638867193</v>
+        <v>0.05782223037462307</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.07021058634960968</v>
+        <v>0.07522390435749672</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.03463185374115418</v>
+        <v>0.03436177137849233</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01044566170536788</v>
+        <v>0.00874388061957981</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2010248773794071</v>
+        <v>0.1948165313484651</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2480522501840016</v>
+        <v>0.235468226194179</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1556180797272848</v>
+        <v>0.1374996851226937</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="n">
-        <v>0.1900309826937826</v>
+        <v>0.1991034135589581</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2829901723265867</v>
+        <v>0.2523166601897955</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1597658646905153</v>
+        <v>0.1648574463930121</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1267093970878477</v>
+        <v>0.1339472739343098</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1662705716730283</v>
+        <v>0.1691687965734892</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2117219846250101</v>
+        <v>0.2133206958720856</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1184795136470644</v>
+        <v>0.1214076879487437</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.05382529760721547</v>
+        <v>0.04777649628017546</v>
       </c>
     </row>
     <row r="7">
@@ -843,37 +843,37 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06419011865352814</v>
+        <v>0.06561930093944304</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04282690247085217</v>
+        <v>0.03936431985600075</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03558270906504139</v>
+        <v>0.03580707225762589</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.08202736723231388</v>
+        <v>0.07968368178593563</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0275399669696387</v>
+        <v>0.02733447398984565</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05404921946110817</v>
+        <v>0.05329983789184495</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01872578697847744</v>
+        <v>0.01900352991360602</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.09249419230085601</v>
+        <v>0.08766248819890413</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.05333481266513481</v>
+        <v>0.05276380337951971</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02507588447788709</v>
+        <v>0.02517136821243285</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07758676197019801</v>
+        <v>0.07730021680360696</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.236190396500802</v>
+        <v>0.2381624673712503</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1781902627763977</v>
+        <v>0.1873114015361124</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04924289072711748</v>
+        <v>0.04491031551151754</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3580873816866452</v>
+        <v>0.3439579391039189</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4592148490165159</v>
+        <v>0.4189401214038824</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2485989399455008</v>
+        <v>0.2567281978654771</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1632202994829137</v>
+        <v>0.1587837829362224</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1206109595663261</v>
+        <v>0.1152364385075405</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2421832510202663</v>
+        <v>0.2376841632160108</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.16629608371783</v>
+        <v>0.1616373932976491</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.07464802237995091</v>
+        <v>0.0736930701077852</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.07429896137578382</v>
+        <v>0.07412840811665235</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1018946024220201</v>
+        <v>0.1016676758422265</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03493121846648573</v>
+        <v>0.03448284473471801</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03862059247202507</v>
+        <v>0.03832959562851131</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05496726169322883</v>
+        <v>0.0520650997755359</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0</v>
+        <v>0.01826485299564592</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1698897652133193</v>
+        <v>0.1737939958640728</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0776396865552105</v>
+        <v>0.08204954437218467</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1015781609831887</v>
+        <v>0.09868450223763289</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03636242749682066</v>
+        <v>0.03654342928886111</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05028000387704592</v>
+        <v>0.05103712539184954</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1972574086817117</v>
+        <v>0.1952442437228774</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2079075862326013</v>
+        <v>0.2125931186820321</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1096245352331684</v>
+        <v>0.1102633461985782</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03044619522418009</v>
+        <v>0.0285019715510744</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.343120683915642</v>
+        <v>0.3372319670699204</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2546454357675454</v>
+        <v>0.2460033336157637</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1581768608572487</v>
+        <v>0.1586347619878598</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3652130667134372</v>
+        <v>0.358585387396988</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1857693310194129</v>
+        <v>0.1916862818971344</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1981358379220106</v>
+        <v>0.1935078879015442</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1028534890079266</v>
+        <v>0.1027194752222203</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1101566640775275</v>
+        <v>0.1162862057655393</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>0.1140897447109478</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.180534855201955</v>
+        <v>0.1805348552019549</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.08514258979133205</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05043036146675599</v>
+        <v>0.04716454424140523</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.144912640947316</v>
+        <v>0.1360416484137276</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0777729473933053</v>
+        <v>0.07578648975437353</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.006262972543502622</v>
+        <v>0.007247088754941707</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.07518146662708125</v>
+        <v>0.07342330348609426</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06544673646023447</v>
+        <v>0.06725213843057908</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.06469873878500745</v>
+        <v>0.06990167542863653</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1300838432872079</v>
+        <v>0.1338151228730542</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.06218133752150064</v>
+        <v>0.06401580710916553</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1288538136492633</v>
+        <v>0.1312188249618377</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.08339113133323076</v>
+        <v>0.0814532866300232</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.04832506490126061</v>
+        <v>0.04820933910241819</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1045826723867075</v>
+        <v>0.102405673468098</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2276675266927365</v>
+        <v>0.2233882123978977</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1500932609480141</v>
+        <v>0.1510351056394862</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03706538119729363</v>
+        <v>0.0366575887370118</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1978705809097607</v>
+        <v>0.2059478509934209</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1964390649232197</v>
+        <v>0.1977851861325331</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1754841527321014</v>
+        <v>0.1839490305756563</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2375421949256213</v>
+        <v>0.2385825381912071</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.11528209686938</v>
+        <v>0.1164710000426946</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.202928957758324</v>
+        <v>0.2056520678952546</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.14623391587397</v>
+        <v>0.1434309302879901</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.08683320962174498</v>
+        <v>0.08749148460827302</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>0.1037830639574571</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.3611074973949832</v>
+        <v>0.3611074973949831</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.1281344343519335</v>
@@ -1237,7 +1237,7 @@
         <v>0.09773503434520893</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.2310241949182994</v>
+        <v>0.2310241949182993</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.08079302119901716</v>
+        <v>0.08035793520109649</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.086136805018787</v>
+        <v>0.08567819105571739</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0569013784352787</v>
+        <v>0.05373239163552909</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.005825042249574603</v>
+        <v>0.005991237315980207</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.06070997365051833</v>
+        <v>0.05602793574744485</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.09444787678574063</v>
+        <v>0.09810794230906528</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.06386608620596949</v>
+        <v>0.06393742761414117</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3168950740890316</v>
+        <v>0.32225022233255</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.07995971785826964</v>
+        <v>0.08021101367772486</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1068190987544896</v>
+        <v>0.105909970073976</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.07032123017187986</v>
+        <v>0.06972089450035886</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1997615597530716</v>
+        <v>0.2021391769714635</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2449249756956143</v>
+        <v>0.2488347512892865</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1984207723241406</v>
+        <v>0.1913064040022715</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1372850515164022</v>
+        <v>0.1398844311062415</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.06071454005685715</v>
+        <v>0.05737957425726654</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1956892948069392</v>
+        <v>0.1898058512841762</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1925724056903686</v>
+        <v>0.1981575310609862</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1577927601064675</v>
+        <v>0.1519906005602185</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4071470775815657</v>
+        <v>0.407427149398061</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1812658646206434</v>
+        <v>0.1854534010681833</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1801079701012714</v>
+        <v>0.1780772479938264</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1304235642692773</v>
+        <v>0.1302303551972212</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2620806362536882</v>
+        <v>0.2692864644857645</v>
       </c>
     </row>
     <row r="19">
@@ -1373,7 +1373,7 @@
         <v>0.04707158042944903</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.7753946193155329</v>
+        <v>0.7753946193155331</v>
       </c>
     </row>
     <row r="20">
@@ -1384,38 +1384,38 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.4188573914051893</v>
+        <v>0.4203409604370035</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.324653205363833</v>
+        <v>0.3492523760055823</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3807638617850353</v>
+        <v>0.3813557402146938</v>
       </c>
       <c r="F20" s="5" t="inlineStr"/>
       <c r="G20" s="5" t="n">
-        <v>0.0244878447519373</v>
+        <v>0.02505597316870579</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.0273522292831575</v>
+        <v>0.02522495785655738</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.007959711561415155</v>
+        <v>0.008207579665033885</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.7680401229019047</v>
+        <v>0.7634868971404429</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.04202573926430406</v>
+        <v>0.04377158579620136</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.05266507649167305</v>
+        <v>0.05277550692962651</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.02506439687670036</v>
+        <v>0.02495223688015365</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.7204851130004987</v>
+        <v>0.730253473360154</v>
       </c>
     </row>
     <row r="21">
@@ -1426,38 +1426,38 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9219600346864498</v>
+        <v>0.9248896202234788</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.868265526113999</v>
+        <v>0.8625661785545345</v>
       </c>
       <c r="E21" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F21" s="5" t="inlineStr"/>
       <c r="G21" s="5" t="n">
-        <v>0.07420290644326588</v>
+        <v>0.07368346717243029</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.08295184754926645</v>
+        <v>0.08159501951056031</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.05023348178551443</v>
+        <v>0.05341363845828511</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.8555132163835727</v>
+        <v>0.8514386417690142</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.09959762478550771</v>
+        <v>0.1057433413966629</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1213214933226252</v>
+        <v>0.1210682276407887</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.08021345750883112</v>
+        <v>0.08140662686927426</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.8168802893666637</v>
+        <v>0.8206562571302161</v>
       </c>
     </row>
     <row r="22">
@@ -1493,7 +1493,7 @@
         <v>0.07297491383413154</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.3929094340260348</v>
+        <v>0.3929094340260347</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.09107453666895604</v>
@@ -1516,40 +1516,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.07773221212293147</v>
+        <v>0.07602967311937349</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1395493797892518</v>
+        <v>0.1376781450399963</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.07981332267253087</v>
+        <v>0.08030115683882323</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.007098241532352095</v>
+        <v>0.007691106612075048</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.06141543492966444</v>
+        <v>0.06173126755344598</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.08270165315986097</v>
+        <v>0.08359520495984399</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.05529720861002865</v>
+        <v>0.05394872565144035</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3662057780795461</v>
+        <v>0.3666673361337699</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.07615595022356303</v>
+        <v>0.07653546820916611</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1200980420760145</v>
+        <v>0.1213345583970411</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.07384061005315654</v>
+        <v>0.07301827547830084</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.179988977176376</v>
+        <v>0.1801426534238337</v>
       </c>
     </row>
     <row r="24">
@@ -1560,40 +1560,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1204576589167899</v>
+        <v>0.12139706365614</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1915667945900313</v>
+        <v>0.1927873690388212</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1202979249576207</v>
+        <v>0.1201161790308418</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.02206305849653606</v>
+        <v>0.02339529964657912</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1081631461637326</v>
+        <v>0.106384347923355</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1293109797938031</v>
+        <v>0.1319877511751353</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.09616769637642364</v>
+        <v>0.09408862650046312</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.4182923805017683</v>
+        <v>0.4211433915651455</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1077537402679411</v>
+        <v>0.1094270889523786</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1554998588211904</v>
+        <v>0.155493432421945</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.102401327896519</v>
+        <v>0.1022067580356365</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2105418327121727</v>
+        <v>0.2113606013215624</v>
       </c>
     </row>
     <row r="25">
@@ -1866,38 +1866,38 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>5049</v>
+        <v>4326</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>4158</v>
+        <v>4109</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3074</v>
+        <v>3012</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="n">
-        <v>1001</v>
+        <v>991</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1898</v>
+        <v>1815</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>899</v>
+        <v>910</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2022</v>
+        <v>1950</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>6968</v>
+        <v>7445</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>7532</v>
+        <v>8070</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>5119</v>
+        <v>5079</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>1980</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="7">
@@ -1908,38 +1908,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>17502</v>
+        <v>16961</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>17375</v>
+        <v>16493</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>15279</v>
+        <v>13500</v>
       </c>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="n">
-        <v>7923</v>
+        <v>8301</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>10538</v>
+        <v>9396</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>7929</v>
+        <v>8182</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>9199</v>
+        <v>9724</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>21408</v>
+        <v>21781</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>22714</v>
+        <v>22885</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>17513</v>
+        <v>17946</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>10202</v>
+        <v>9056</v>
       </c>
     </row>
     <row r="8">
@@ -2045,37 +2045,37 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>6123</v>
+        <v>6260</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3391</v>
+        <v>3117</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>920</v>
+        <v>926</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>3062</v>
+        <v>2975</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1002</v>
+        <v>995</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>3708</v>
+        <v>3657</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1908</v>
+        <v>1936</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>12276</v>
+        <v>11635</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>6163</v>
+        <v>6097</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>4648</v>
+        <v>4665</v>
       </c>
     </row>
     <row r="11">
@@ -2086,40 +2086,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5898</v>
+        <v>5876</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>22531</v>
+        <v>22719</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>14108</v>
+        <v>14831</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>5749</v>
+        <v>5243</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>9260</v>
+        <v>8895</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>17142</v>
+        <v>15639</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>9045</v>
+        <v>9341</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>11198</v>
+        <v>10894</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>12288</v>
+        <v>11740</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>32143</v>
+        <v>31546</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>19217</v>
+        <v>18679</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>13836</v>
+        <v>13659</v>
       </c>
     </row>
     <row r="12">
@@ -2222,40 +2222,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>8794</v>
+        <v>8774</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>18860</v>
+        <v>18818</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>6070</v>
+        <v>5993</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>3239</v>
+        <v>3068</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0</v>
+        <v>896</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>9633</v>
+        <v>9855</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>10837</v>
+        <v>11453</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>24787</v>
+        <v>24081</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>8104</v>
+        <v>8144</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>10062</v>
+        <v>10213</v>
       </c>
     </row>
     <row r="15">
@@ -2266,40 +2266,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>23347</v>
+        <v>23109</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>38481</v>
+        <v>39349</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>19051</v>
+        <v>19162</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>4366</v>
+        <v>4087</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7283</v>
+        <v>7158</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>15005</v>
+        <v>14496</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>7763</v>
+        <v>7785</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>20709</v>
+        <v>20333</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>25931</v>
+        <v>26757</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>48349</v>
+        <v>47219</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>22922</v>
+        <v>22892</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>22043</v>
+        <v>23270</v>
       </c>
     </row>
     <row r="16">
@@ -2402,40 +2402,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>18237</v>
+        <v>17056</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>50689</v>
+        <v>47586</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>26888</v>
+        <v>26201</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2014</v>
+        <v>2330</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>8497</v>
+        <v>8298</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>7581</v>
+        <v>7790</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>9353</v>
+        <v>10106</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>17907</v>
+        <v>18421</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>29514</v>
+        <v>30384</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>59998</v>
+        <v>61100</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>40886</v>
+        <v>39936</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>22191</v>
+        <v>22138</v>
       </c>
     </row>
     <row r="19">
@@ -2446,40 +2446,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>37820</v>
+        <v>37032</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>79637</v>
+        <v>78140</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>51891</v>
+        <v>52216</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>11918</v>
+        <v>11787</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>22362</v>
+        <v>23275</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>22755</v>
+        <v>22911</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>25370</v>
+        <v>26594</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>32700</v>
+        <v>32844</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>54717</v>
+        <v>55282</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>94490</v>
+        <v>95758</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>71697</v>
+        <v>70323</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>39874</v>
+        <v>40177</v>
       </c>
     </row>
     <row r="20">
@@ -2582,40 +2582,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>6682</v>
+        <v>6646</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>13152</v>
+        <v>13082</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>11020</v>
+        <v>10406</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>879</v>
+        <v>904</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>6141</v>
+        <v>5668</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>21398</v>
+        <v>22227</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>13170</v>
+        <v>13185</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>76791</v>
+        <v>78089</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>14701</v>
+        <v>14747</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>40511</v>
+        <v>40167</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>28120</v>
+        <v>27880</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>78564</v>
+        <v>79499</v>
       </c>
     </row>
     <row r="23">
@@ -2626,40 +2626,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>20255</v>
+        <v>20579</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>30297</v>
+        <v>29211</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>26588</v>
+        <v>27092</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>9166</v>
+        <v>8662</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>19795</v>
+        <v>19200</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>43629</v>
+        <v>44895</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>32539</v>
+        <v>31342</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>98661</v>
+        <v>98729</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>33327</v>
+        <v>34097</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>68306</v>
+        <v>67536</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>52154</v>
+        <v>52077</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>103073</v>
+        <v>105907</v>
       </c>
     </row>
     <row r="24">
@@ -2762,38 +2762,38 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>4312</v>
+        <v>4327</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>5225</v>
+        <v>5621</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>3215</v>
+        <v>3220</v>
       </c>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="n">
-        <v>6689</v>
+        <v>6844</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>7364</v>
+        <v>6791</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1979</v>
+        <v>2041</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>162359</v>
+        <v>161397</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>11911</v>
+        <v>12406</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>15026</v>
+        <v>15058</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>6444</v>
+        <v>6416</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>159818</v>
+        <v>161985</v>
       </c>
     </row>
     <row r="27">
@@ -2804,38 +2804,38 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>9491</v>
+        <v>9521</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>13975</v>
+        <v>13883</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>8443</v>
       </c>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="n">
-        <v>20268</v>
+        <v>20126</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>22333</v>
+        <v>21967</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>12492</v>
+        <v>13283</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>180850</v>
+        <v>179989</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>28229</v>
+        <v>29971</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>34615</v>
+        <v>34543</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>20624</v>
+        <v>20931</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>181200</v>
+        <v>182038</v>
       </c>
     </row>
     <row r="28">
@@ -2938,40 +2938,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>57216</v>
+        <v>55962</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>121283</v>
+        <v>119657</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>71750</v>
+        <v>72189</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>6105</v>
+        <v>6615</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>35381</v>
+        <v>35563</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>61622</v>
+        <v>62288</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>40618</v>
+        <v>39628</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>289041</v>
+        <v>289405</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>99928</v>
+        <v>100426</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>193865</v>
+        <v>195861</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>120620</v>
+        <v>119277</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>296858</v>
+        <v>297112</v>
       </c>
     </row>
     <row r="31">
@@ -2982,40 +2982,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>88664</v>
+        <v>89356</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>166492</v>
+        <v>167553</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>108145</v>
+        <v>107982</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>18975</v>
+        <v>20121</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>62311</v>
+        <v>61287</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>96352</v>
+        <v>98346</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>70640</v>
+        <v>69112</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>330152</v>
+        <v>332403</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>141389</v>
+        <v>143584</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>251011</v>
+        <v>251001</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>167275</v>
+        <v>166957</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>347250</v>
+        <v>348600</v>
       </c>
     </row>
     <row r="32">
